--- a/2018-05.xlsx
+++ b/2018-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,10 +626,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,17 +659,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1167,9 +1176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,31 +1219,31 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="31">
         <v>43221</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="29">
         <v>1</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="29">
         <v>1</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="29">
         <v>1</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="29">
         <v>1</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="29">
         <v>1</v>
       </c>
       <c r="K2" s="17"/>
@@ -1248,17 +1257,17 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1270,19 +1279,33 @@
       <c r="S3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="31">
         <v>43222</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="40"/>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="43">
+        <v>1</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1294,17 +1317,17 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1316,19 +1339,19 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="31">
         <v>43223</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -1340,17 +1363,17 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -1362,7 +1385,7 @@
       <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="31">
         <v>43224</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -1386,7 +1409,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
@@ -1408,19 +1431,19 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="31">
         <v>43225</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -1432,17 +1455,17 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1454,7 +1477,7 @@
       <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="31">
         <v>43226</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1478,7 +1501,7 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -1500,19 +1523,19 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="31">
         <v>43227</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -1524,17 +1547,17 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -1546,7 +1569,7 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="31">
         <v>43228</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -1570,7 +1593,7 @@
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1592,19 +1615,19 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="31">
         <v>43229</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -1616,17 +1639,17 @@
       <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -1638,7 +1661,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="31">
         <v>43230</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -1662,7 +1685,7 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="23" t="s">
         <v>10</v>
       </c>
@@ -1684,19 +1707,19 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="31">
         <v>43231</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1708,17 +1731,17 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -1730,7 +1753,7 @@
       <c r="S23" s="17"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="31">
         <v>43232</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -1754,7 +1777,7 @@
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="23" t="s">
         <v>10</v>
       </c>
@@ -1776,19 +1799,19 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="31">
         <v>43233</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -1800,17 +1823,17 @@
       <c r="S26" s="17"/>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
@@ -1822,7 +1845,7 @@
       <c r="S27" s="17"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="31">
         <v>43234</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -1846,7 +1869,7 @@
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="23" t="s">
         <v>10</v>
       </c>
@@ -1868,19 +1891,19 @@
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="31">
         <v>43235</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
@@ -1892,17 +1915,17 @@
       <c r="S30" s="17"/>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
@@ -1914,7 +1937,7 @@
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="31">
         <v>43236</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -1938,7 +1961,7 @@
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="23" t="s">
         <v>10</v>
       </c>
@@ -1960,19 +1983,19 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="31">
         <v>43237</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -1984,17 +2007,17 @@
       <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -2006,7 +2029,7 @@
       <c r="S35" s="17"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="A36" s="31">
         <v>43238</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -2030,7 +2053,7 @@
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="23" t="s">
         <v>10</v>
       </c>
@@ -2052,19 +2075,19 @@
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="31">
         <v>43239</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -2076,17 +2099,17 @@
       <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -2098,7 +2121,7 @@
       <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="31">
         <v>43240</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -2122,7 +2145,7 @@
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="23" t="s">
         <v>10</v>
       </c>
@@ -2144,19 +2167,19 @@
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="31">
         <v>43241</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
@@ -2168,17 +2191,17 @@
       <c r="S42" s="17"/>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
@@ -2190,7 +2213,7 @@
       <c r="S43" s="17"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="31">
         <v>43242</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -2214,7 +2237,7 @@
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
       </c>
@@ -2236,19 +2259,19 @@
       <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="31">
         <v>43243</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -2260,17 +2283,17 @@
       <c r="S46" s="17"/>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
@@ -2282,7 +2305,7 @@
       <c r="S47" s="17"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="31">
         <v>43244</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -2306,7 +2329,7 @@
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="23" t="s">
         <v>10</v>
       </c>
@@ -2328,19 +2351,19 @@
       <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="31">
         <v>43245</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -2352,17 +2375,17 @@
       <c r="S50" s="17"/>
     </row>
     <row r="51" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -2374,7 +2397,7 @@
       <c r="S51" s="17"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="31">
         <v>43246</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -2398,7 +2421,7 @@
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="23" t="s">
         <v>10</v>
       </c>
@@ -2420,19 +2443,19 @@
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="31">
         <v>43247</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
@@ -2444,17 +2467,17 @@
       <c r="S54" s="17"/>
     </row>
     <row r="55" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
@@ -2466,7 +2489,7 @@
       <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="31">
         <v>43248</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -2490,7 +2513,7 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="23" t="s">
         <v>10</v>
       </c>
@@ -2512,19 +2535,19 @@
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="31">
         <v>43249</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
@@ -2536,17 +2559,17 @@
       <c r="S58" s="17"/>
     </row>
     <row r="59" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
@@ -2558,7 +2581,7 @@
       <c r="S59" s="17"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="31">
         <v>43250</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -2582,7 +2605,7 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="23" t="s">
         <v>10</v>
       </c>
@@ -2604,19 +2627,19 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="31">
         <v>43251</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -2628,17 +2651,17 @@
       <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -4159,12 +4182,26 @@
       <c r="S149" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
+  <mergeCells count="45">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="H2:H3"/>
@@ -4177,27 +4214,20 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4209,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4227,18 +4257,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -4284,7 +4314,9 @@
       <c r="A4" s="9">
         <v>43222</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="21">
+        <v>187</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="2"/>
       <c r="E4" s="26"/>
@@ -4727,7 +4759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="139" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4745,17 +4777,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5142,17 +5174,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,7 +5222,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="38" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -5215,7 +5247,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="36"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
@@ -5238,7 +5270,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="39" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -5263,7 +5295,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="15" t="s">
         <v>26</v>
       </c>

--- a/2018-05.xlsx
+++ b/2018-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -332,6 +332,13 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>柴油</t>
+    <rPh sb="0" eb="1">
+      <t>chai'you</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -629,13 +636,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -660,18 +679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,9 +1183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,31 +1226,31 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="29">
         <v>43221</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="32">
         <v>1</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="32">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="32">
         <v>1</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="32">
         <v>1</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="32">
         <v>1</v>
       </c>
       <c r="K2" s="17"/>
@@ -1257,17 +1264,17 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1279,31 +1286,31 @@
       <c r="S3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>43222</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="30">
         <v>1</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="34">
         <v>1</v>
       </c>
       <c r="K4" s="2"/>
@@ -1317,17 +1324,17 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="35"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1339,19 +1346,33 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>43223</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1</v>
+      </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -1363,17 +1384,17 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -1385,7 +1406,7 @@
       <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>43224</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -1409,7 +1430,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1452,7 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>43225</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -1455,7 +1476,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1498,7 @@
       <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>43226</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1501,7 +1522,7 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1544,7 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <v>43227</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -1547,7 +1568,7 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1590,7 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <v>43228</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -1593,7 +1614,7 @@
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1636,7 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="29">
         <v>43229</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -1639,7 +1660,7 @@
       <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="24" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1682,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="29">
         <v>43230</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -1685,7 +1706,7 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>10</v>
       </c>
@@ -1707,7 +1728,7 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
+      <c r="A22" s="29">
         <v>43231</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -1731,7 +1752,7 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="24" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1774,7 @@
       <c r="S23" s="17"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+      <c r="A24" s="29">
         <v>43232</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -1777,7 +1798,7 @@
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1820,7 @@
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="29">
         <v>43233</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -1823,7 +1844,7 @@
       <c r="S26" s="17"/>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="24" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1866,7 @@
       <c r="S27" s="17"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <v>43234</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -1869,7 +1890,7 @@
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="23" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1912,7 @@
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="29">
         <v>43235</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -1915,7 +1936,7 @@
       <c r="S30" s="17"/>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="24" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1958,7 @@
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <v>43236</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -1961,7 +1982,7 @@
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="23" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +2004,7 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
+      <c r="A34" s="29">
         <v>43237</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -2007,7 +2028,7 @@
       <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="24" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2050,7 @@
       <c r="S35" s="17"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="A36" s="29">
         <v>43238</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -2053,7 +2074,7 @@
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="23" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2096,7 @@
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
+      <c r="A38" s="29">
         <v>43239</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -2099,7 +2120,7 @@
       <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="24" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2142,7 @@
       <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="29">
         <v>43240</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -2145,7 +2166,7 @@
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="23" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2188,7 @@
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31">
+      <c r="A42" s="29">
         <v>43241</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -2191,7 +2212,7 @@
       <c r="S42" s="17"/>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="24" t="s">
         <v>10</v>
       </c>
@@ -2213,7 +2234,7 @@
       <c r="S43" s="17"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="31">
+      <c r="A44" s="29">
         <v>43242</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -2237,7 +2258,7 @@
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2280,7 @@
       <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31">
+      <c r="A46" s="29">
         <v>43243</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -2283,7 +2304,7 @@
       <c r="S46" s="17"/>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="24" t="s">
         <v>10</v>
       </c>
@@ -2305,7 +2326,7 @@
       <c r="S47" s="17"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="31">
+      <c r="A48" s="29">
         <v>43244</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -2329,7 +2350,7 @@
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="23" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2372,7 @@
       <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31">
+      <c r="A50" s="29">
         <v>43245</v>
       </c>
       <c r="B50" s="24" t="s">
@@ -2375,7 +2396,7 @@
       <c r="S50" s="17"/>
     </row>
     <row r="51" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="24" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2418,7 @@
       <c r="S51" s="17"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="31">
+      <c r="A52" s="29">
         <v>43246</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -2421,7 +2442,7 @@
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="23" t="s">
         <v>10</v>
       </c>
@@ -2443,7 +2464,7 @@
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31">
+      <c r="A54" s="29">
         <v>43247</v>
       </c>
       <c r="B54" s="24" t="s">
@@ -2467,7 +2488,7 @@
       <c r="S54" s="17"/>
     </row>
     <row r="55" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="24" t="s">
         <v>10</v>
       </c>
@@ -2489,7 +2510,7 @@
       <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="31">
+      <c r="A56" s="29">
         <v>43248</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -2513,7 +2534,7 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="23" t="s">
         <v>10</v>
       </c>
@@ -2535,7 +2556,7 @@
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31">
+      <c r="A58" s="29">
         <v>43249</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -2559,7 +2580,7 @@
       <c r="S58" s="17"/>
     </row>
     <row r="59" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="24" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2602,7 @@
       <c r="S59" s="17"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
+      <c r="A60" s="29">
         <v>43250</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -2605,7 +2626,7 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="23" t="s">
         <v>10</v>
       </c>
@@ -2627,7 +2648,7 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31">
+      <c r="A62" s="29">
         <v>43251</v>
       </c>
       <c r="B62" s="24" t="s">
@@ -2651,7 +2672,7 @@
       <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="24" t="s">
         <v>10</v>
       </c>
@@ -4182,7 +4203,43 @@
       <c r="S149" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="52">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="C4:C5"/>
@@ -4197,37 +4254,8 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4239,8 +4267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4257,18 +4285,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -4305,9 +4333,15 @@
         <v>36</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="7">
+        <v>43223</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="26">
+        <v>80</v>
+      </c>
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4328,7 +4362,9 @@
       <c r="A5" s="9">
         <v>43223</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="20">
+        <v>31</v>
+      </c>
       <c r="C5" s="20"/>
       <c r="D5" s="2"/>
       <c r="E5" s="26"/>
@@ -4777,17 +4813,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5174,17 +5210,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -5222,7 +5258,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -5247,7 +5283,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
@@ -5270,7 +5306,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -5295,7 +5331,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="39"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="15" t="s">
         <v>26</v>
       </c>
